--- a/02.设计/02.详细设计/02.战斗设计/DD_002002_战斗公式设计.xlsx
+++ b/02.设计/02.详细设计/02.战斗设计/DD_002002_战斗公式设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -21,290 +21,290 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="257">
   <si>
     <t>战斗单位由佣兵，武器，防具，饰品构成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>防御</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>体力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性2抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性3抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性4抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性5抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0步行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0服</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1甲</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2铠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>服</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>铠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器防具克制关系（伤害倍率表示）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>斩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>打</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>突</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>移动距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>移动类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>防具类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏中一个战斗单位的基础参数（战斗）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位基础参数一览</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动技能s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>针对对应属性伤害的减伤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>实例</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>主动技能s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>火焰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>冰冻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>电击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>酸蚀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>例</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害倍率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>周末加班</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>物理</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>[(0,1),(1,0),(0,-1),(-1,0),(1,1),(1,-1),(-1,-1),(-1,1),(2,0),(-2,0),(0,2),(0,-2)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>体力消耗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性1抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位主动技能参数一览</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位被击技能参数一览</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skl_100101</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置好
 的技能id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能的
 名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skl_200101</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发动概率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>摸鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>摸鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被击技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>乘以攻击
 的系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不使用参数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skl_200401</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>吃屎致患</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发动时机</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skl_200901</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>睡到中午</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skl_201901</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>全天餐补</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发条件1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发条件2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发条件3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发条件4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0，普通回避
@@ -313,107 +313,107 @@
 3，普通buff
 4，先手反击
 n，等等多种</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>实例（每个类型的技能，根据设计不同，参数也不一样）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0,对方攻击前
 1,对方攻击后</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位属性计算方法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位内部面板属性 = 外部面板属性+被动技能增益+buff增益+地形增益+tsv光环增益；（随时变化）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生命值变为0或者更低时，角色死亡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色生命值的上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生命值上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大生命值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当前生命值不可超过最大生命值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>体力恢复</t>
   </si>
   <si>
     <t>体力恢复</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>防御力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色防御力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>移动距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>移动类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>防具类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大体力值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>体力</t>
@@ -423,264 +423,264 @@
   </si>
   <si>
     <t>攻击类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器的攻击类型，与防具类型存在克制关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色的防具类型，与武器类型存在克制关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>针对属性攻击的抗性，暂5种</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每次行动能够移动的格数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通过地形时的判断方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv属性列表（参数格式同角色）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被攻击时，100%发动技能摸鱼，如果对方在攻击范围外，则不进行反击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被攻击时，50%发动技能吃屎，回避对方伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被攻击时，80%发动技能睡到中午，抵消掉对方造成的最终伤害的60%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>持续回合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标角色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提升属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提升数值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被攻击时，20%发动技能全天餐补，对自己，提升攻击，20点，持续3回合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>只需先做012这三种类型被击技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>反击技能的属性做在技能的表中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能属性列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被击技能s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击乘以这个倍率即为技能伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能倍率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0，斩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1，打</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2，突</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性抗性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>针对属性攻击的抗性，暂5种</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>体力消耗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能释放类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>释放技能消耗的体力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buff效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>先不做</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0，普通
 1，范围
 2，被击
 3，buff</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>该技能的属性判定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能攻击时的波及范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能所能攻击到的距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>左侧攻击范围示意</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击位置为锚点
 (0,0)穷举范围点，
 填数组(位移偏量)
 填1为1格范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗伤害公式一览</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位属性列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏内面板生命值上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位当前的体力值，攻击消耗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏内面板体力值的上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位每回合恢复的体力值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位面板攻击力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位面板防御力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位每次行动能够移动的格数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位通过地形时的判断方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位的防具类型，与武器类型存在克制关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位外部面板属性 = 角色 + 武器 +防具+饰品（蒸汽导力器）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>面板速度，决定行动顺序，并影响攻击的暴击几率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>二级属性，不显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>内容:</t>
     <rPh sb="0" eb="1">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
@@ -705,7 +705,7 @@
     <rPh sb="2" eb="3">
       <t>chuang'jian</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>刘超</t>
@@ -715,19 +715,19 @@
     <rPh sb="1" eb="2">
       <t>xue'cheng</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ID:</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0.0.1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DD_002002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>战斗相关设计</t>
@@ -740,63 +740,63 @@
     <rPh sb="4" eb="5">
       <t>xiang'guanye'wu</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1飞行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2车...</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色暴击率无法成长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发动攻击时，如果暴击率(包括技能&amp;速度补正)超过100%时，提升10%暴击伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率设计：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率可以超过100%，多出来的部分换算为暴击伤害补正</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>接上，每多出10%暴击率时，再提升10%暴击伤害（如超过110%提升20%暴击伤害。）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>概率发动暴击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击攻击：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色在攻击时进行一次概率判定，如果暴击，则最终伤害乘以暴击伤害的倍率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>超额暴击率对暴击伤害的补正：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -819,7 +819,7 @@
       </rPr>
       <t>本身有暴击率补正</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -845,7 +845,7 @@
       </rPr>
       <t>影响暴击率</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -871,7 +871,7 @@
       </rPr>
       <t>来增加</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -894,7 +894,7 @@
       </rPr>
       <t>10%暴击率</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -917,93 +917,93 @@
       </rPr>
       <t>装备暴击光环，对一定范围内的单位有暴击加成</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击影响因素： 角色本体+装备加成+速度差补正+技能自带+tsv光环</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0~79</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>80~89</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>90~99</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>100~109</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>110~119</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>120~129</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>130~139</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>140~</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>更新暴击设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>刘超</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>光环效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>由tsv装备产生的效果，一定范围内生效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色携带
 数个主动技能
 和被动技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>战斗单位被动技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基于各个阶段进行触发。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>恢复光环，以tsv为中心一小块范围内可以恢复生命值，能量。【通过升级特定部件，强化光环（范围、效果）】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补给投放，可以对射程内一小块范围投掷道具，【通过升级特定部件，强化（距离、范围）】【道具需要购买，使用后消耗，有恢复，+buff，去异常等效果】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv外观，装备后改变tsv外观，亦有特殊效果。【比如飞行，光环范围+1，属性强化等等】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1019,55 +1019,55 @@
       </rPr>
       <t>sv功能</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv定位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>移动主城，战斗辅助，围绕支援进行设计，强调抱团战斗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>更新tsv细节设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>助战光环，以tsv为中心一定范围内提升对应属性属性。【通过装备不同tsv插件更换光环，（助战光环绑定在tsv插件中）】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝对胜负条件，被击破则判定gameover，如果对方也拥有tsv，则击破对方所有tsv就会判定获胜。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv可以携带多个插件，但无法携带同类型插件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>本体</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>插件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>决定场上所有单位先后手顺序</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性完全通过插件携带。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,35 +1083,35 @@
       </rPr>
       <t>sv强化</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>装备插件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>携带道具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>装备背包中道具，使用消耗。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv有多个部件可以进行强化，提升属性，解锁功能，下一阶段进行具体设计。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏中可以获得各种插件：属性模块插件，光环模块插件，战斗模块插件，外形模块插件，等等插件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>关于tsv成长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>关于tsv玩法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1127,19 +1127,19 @@
       </rPr>
       <t>sv属性，解锁外围系统，推进主线发展</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>进行定向补给</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提供恢复光环</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>进行攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1155,78 +1155,78 @@
       </rPr>
       <t>uff光环</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>快速胜利条件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不慎失败条件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tsv战斗属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>主动攻击，tsv装备特定插件后，可以进行攻击，【同技能，完全由插件提供属性】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>会心</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>计算1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>计算2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>幸运</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击时的伤害倍率，暂定随暴击率走动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度顺差</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大于</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小于</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击提升</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度数值设计倾向</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度型角色对力量型角色有明显的攻击优势，通过明显的暴击拉幅来体现</t>
   </si>
   <si>
     <t>速度逆差</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击减少</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>速度差暴击补正：（以下举例非实填）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1236,13 +1236,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1859,26 +1866,106 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1886,108 +1973,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2002,267 +2009,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4036,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4050,54 +4057,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="50" t="s">
@@ -4360,7 +4367,7 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:E6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4370,7 +4377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -4423,12 +4430,12 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N4" s="15"/>
@@ -4508,211 +4515,211 @@
       <c r="C11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C16" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C19" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C20" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C21" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C22" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C24" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C25" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
@@ -4735,17 +4742,17 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
       <c r="L30" s="24"/>
       <c r="M30" s="8"/>
     </row>
@@ -4812,7 +4819,7 @@
     </row>
     <row r="32" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="95" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="19"/>
@@ -4832,22 +4839,22 @@
       <c r="M32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="106" t="s">
+      <c r="N32" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="114" t="s">
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
-      <c r="D33" s="110"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="8"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -4861,20 +4868,20 @@
       <c r="M33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="99" t="s">
+      <c r="N33" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="D34" s="110"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="8"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -4903,13 +4910,13 @@
       <c r="R34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
-      <c r="D35" s="111"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -4924,35 +4931,35 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="107" t="s">
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
@@ -5004,9 +5011,9 @@
       <c r="R37" s="21">
         <v>0.05</v>
       </c>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="102"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
@@ -5041,35 +5048,35 @@
       <c r="C41" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="N41" s="104" t="s">
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="N41" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C42" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
       <c r="N42" s="15"/>
       <c r="O42" s="16" t="s">
         <v>17</v>
@@ -5085,15 +5092,15 @@
       <c r="C43" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
       <c r="N43" s="16" t="s">
         <v>13</v>
       </c>
@@ -5111,15 +5118,15 @@
       <c r="C44" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="86"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="124"/>
       <c r="N44" s="16" t="s">
         <v>14</v>
       </c>
@@ -5137,15 +5144,15 @@
       <c r="C45" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
       <c r="N45" s="16" t="s">
         <v>15</v>
       </c>
@@ -5163,57 +5170,57 @@
       <c r="C46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C47" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="87" t="s">
+      <c r="D47" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C48" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="86"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="124"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C49" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="95" t="s">
+      <c r="D49" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="97"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -5286,69 +5293,69 @@
       <c r="J53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="117" t="s">
+      <c r="K53" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="L53" s="118"/>
+      <c r="L53" s="106"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="119" t="s">
+      <c r="D54" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="109" t="s">
+      <c r="E54" s="95" t="s">
         <v>136</v>
       </c>
       <c r="F54" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G54" s="119" t="s">
+      <c r="G54" s="93" t="s">
         <v>57</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="90" t="s">
+      <c r="K54" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="L54" s="91"/>
+      <c r="L54" s="102"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="99"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="99"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -5356,16 +5363,16 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="99"/>
+      <c r="G57" s="94"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -5373,18 +5380,18 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
-      <c r="C58" s="115" t="s">
+      <c r="C58" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -5416,10 +5423,10 @@
       <c r="J59" s="8">
         <v>4</v>
       </c>
-      <c r="K59" s="91" t="s">
+      <c r="K59" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="91"/>
+      <c r="L59" s="102"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -5435,8 +5442,8 @@
       <c r="H60" s="20"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -5452,8 +5459,8 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -5469,8 +5476,8 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -5485,8 +5492,8 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
       <c r="M63" s="28" t="s">
         <v>140</v>
       </c>
@@ -5586,104 +5593,104 @@
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C69" s="119" t="s">
+      <c r="C69" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="119" t="s">
+      <c r="D69" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="109" t="s">
+      <c r="E69" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="100"/>
-      <c r="G69" s="109" t="s">
+      <c r="F69" s="109"/>
+      <c r="G69" s="95" t="s">
         <v>73</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
-      <c r="L69" s="90" t="s">
+      <c r="L69" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="M69" s="91"/>
+      <c r="M69" s="102"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="121"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="97"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="121"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="97"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="91"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="102"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="121"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="97"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="102"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="121"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="97"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="121"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="97"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
+      <c r="L74" s="128"/>
+      <c r="M74" s="128"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C75" s="122" t="s">
+      <c r="C75" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="88" t="s">
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="98"/>
+      <c r="K75" s="98"/>
+      <c r="L75" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="M75" s="89"/>
+      <c r="M75" s="127"/>
     </row>
     <row r="76" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="23" t="s">
@@ -5701,12 +5708,12 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="H76" s="120" t="s">
+      <c r="H76" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
       <c r="L76" s="31" t="s">
         <v>107</v>
       </c>
@@ -5727,12 +5734,12 @@
       <c r="G77" s="22">
         <v>0</v>
       </c>
-      <c r="H77" s="99" t="s">
+      <c r="H77" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="99"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="94"/>
       <c r="L77" s="31" t="s">
         <v>108</v>
       </c>
@@ -5950,155 +5957,155 @@
       <c r="C105" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="93" t="s">
+      <c r="D105" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="E105" s="93"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
-      <c r="H105" s="93"/>
-      <c r="I105" s="93"/>
-      <c r="J105" s="93"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="121"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="121"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C106" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="94" t="s">
+      <c r="D106" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E106" s="94"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94"/>
-      <c r="H106" s="94"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="100"/>
+      <c r="I106" s="100"/>
+      <c r="J106" s="100"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C107" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D107" s="87" t="s">
+      <c r="D107" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="87"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="87"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="87"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="99"/>
+      <c r="J107" s="99"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C108" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="84" t="s">
+      <c r="D108" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="86"/>
+      <c r="E108" s="123"/>
+      <c r="F108" s="123"/>
+      <c r="G108" s="123"/>
+      <c r="H108" s="123"/>
+      <c r="I108" s="123"/>
+      <c r="J108" s="124"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C109" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="87" t="s">
+      <c r="D109" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="E109" s="87"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="87"/>
-      <c r="I109" s="87"/>
-      <c r="J109" s="87"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C110" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="84" t="s">
+      <c r="D110" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="86"/>
+      <c r="E110" s="123"/>
+      <c r="F110" s="123"/>
+      <c r="G110" s="123"/>
+      <c r="H110" s="123"/>
+      <c r="I110" s="123"/>
+      <c r="J110" s="124"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C111" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D111" s="87" t="s">
+      <c r="D111" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="87"/>
-      <c r="F111" s="87"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="87"/>
-      <c r="I111" s="87"/>
-      <c r="J111" s="87"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="99"/>
+      <c r="J111" s="99"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C112" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="84" t="s">
+      <c r="D112" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="86"/>
+      <c r="E112" s="123"/>
+      <c r="F112" s="123"/>
+      <c r="G112" s="123"/>
+      <c r="H112" s="123"/>
+      <c r="I112" s="123"/>
+      <c r="J112" s="124"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C113" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="87" t="s">
+      <c r="D113" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="87"/>
-      <c r="I113" s="87"/>
-      <c r="J113" s="87"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C114" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D114" s="84" t="s">
+      <c r="D114" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="86"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="123"/>
+      <c r="G114" s="123"/>
+      <c r="H114" s="123"/>
+      <c r="I114" s="123"/>
+      <c r="J114" s="124"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C115" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="D115" s="87" t="s">
+      <c r="D115" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="E115" s="87"/>
-      <c r="F115" s="87"/>
-      <c r="G115" s="87"/>
-      <c r="H115" s="87"/>
-      <c r="I115" s="87"/>
-      <c r="J115" s="87"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="99"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="99"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="70" t="s">
@@ -6188,25 +6195,30 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="S32:U37"/>
-    <mergeCell ref="C58:L58"/>
-    <mergeCell ref="K59:L63"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="K54:L57"/>
-    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:J115"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D111:J111"/>
+    <mergeCell ref="D112:J112"/>
+    <mergeCell ref="D113:J113"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D108:J108"/>
+    <mergeCell ref="D109:J109"/>
+    <mergeCell ref="D110:J110"/>
+    <mergeCell ref="D105:J105"/>
+    <mergeCell ref="D106:J106"/>
+    <mergeCell ref="D107:J107"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="F69:F74"/>
     <mergeCell ref="D24:J24"/>
@@ -6223,35 +6235,30 @@
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="S32:U37"/>
+    <mergeCell ref="C58:L58"/>
+    <mergeCell ref="K59:L63"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="K54:L57"/>
+    <mergeCell ref="N41:Q41"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D108:J108"/>
-    <mergeCell ref="D109:J109"/>
-    <mergeCell ref="D110:J110"/>
-    <mergeCell ref="D105:J105"/>
-    <mergeCell ref="D106:J106"/>
-    <mergeCell ref="D107:J107"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:J115"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D111:J111"/>
-    <mergeCell ref="D112:J112"/>
-    <mergeCell ref="D113:J113"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="C75:K75"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6341,7 +6348,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6357,642 +6364,642 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="127" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="127"/>
+    <col min="1" max="1" width="13.5" style="76" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="A18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123" t="s">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="D23" s="124" t="s">
+      <c r="A23" s="72"/>
+      <c r="D23" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
-      <c r="D24" s="124" t="s">
+      <c r="A24" s="72"/>
+      <c r="D24" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="77">
         <v>1.2</v>
       </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="D25" s="124" t="s">
+      <c r="A25" s="72"/>
+      <c r="D25" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="77">
         <v>1.25</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
-      <c r="D26" s="124" t="s">
+      <c r="A26" s="72"/>
+      <c r="D26" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="77">
         <v>1.3</v>
       </c>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
-      <c r="D27" s="124" t="s">
+      <c r="A27" s="72"/>
+      <c r="D27" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="128">
+      <c r="E27" s="77">
         <v>1.4</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
-      <c r="D28" s="123" t="s">
+      <c r="A28" s="72"/>
+      <c r="D28" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="128">
+      <c r="E28" s="77">
         <v>1.45</v>
       </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="D29" s="123" t="s">
+      <c r="A29" s="79"/>
+      <c r="D29" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="77">
         <v>1.5</v>
       </c>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="126">
+      <c r="E30" s="75">
         <v>1.6</v>
       </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="126">
+      <c r="E31" s="75">
         <v>1.75</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="130"/>
-      <c r="E32" s="126"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="75"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
-      <c r="B35" s="123" t="s">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D35" s="124">
+      <c r="D35" s="73">
         <v>5</v>
       </c>
-      <c r="E35" s="125" t="s">
+      <c r="E35" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F35" s="124">
+      <c r="F35" s="73">
         <v>9</v>
       </c>
-      <c r="G35" s="123" t="s">
+      <c r="G35" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="126">
+      <c r="H35" s="75">
         <v>0.03</v>
       </c>
-      <c r="I35" s="124"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="126"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="75"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123" t="s">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="124">
+      <c r="D36" s="73">
         <v>10</v>
       </c>
-      <c r="E36" s="125" t="s">
+      <c r="E36" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="124">
+      <c r="F36" s="73">
         <v>19</v>
       </c>
-      <c r="G36" s="123" t="s">
+      <c r="G36" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H36" s="126">
+      <c r="H36" s="75">
         <v>0.05</v>
       </c>
-      <c r="I36" s="123"/>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="124">
+      <c r="D37" s="73">
         <v>20</v>
       </c>
-      <c r="E37" s="125" t="s">
+      <c r="E37" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="124">
+      <c r="F37" s="73">
         <v>29</v>
       </c>
-      <c r="G37" s="123" t="s">
+      <c r="G37" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H37" s="126">
+      <c r="H37" s="75">
         <v>0.1</v>
       </c>
-      <c r="I37" s="123"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123" t="s">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="124">
+      <c r="D38" s="73">
         <v>30</v>
       </c>
-      <c r="E38" s="125" t="s">
+      <c r="E38" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="124">
+      <c r="F38" s="73">
         <v>39</v>
       </c>
-      <c r="G38" s="123" t="s">
+      <c r="G38" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="126">
+      <c r="H38" s="75">
         <v>0.2</v>
       </c>
-      <c r="I38" s="131"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="123"/>
-      <c r="B39" s="123" t="s">
+      <c r="A39" s="72"/>
+      <c r="B39" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D39" s="124">
+      <c r="D39" s="73">
         <v>40</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="123" t="s">
+      <c r="E39" s="74"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H39" s="126">
+      <c r="H39" s="75">
         <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D41" s="124">
+      <c r="D41" s="73">
         <v>0</v>
       </c>
-      <c r="E41" s="125" t="s">
+      <c r="E41" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F41" s="124">
+      <c r="F41" s="73">
         <v>9</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="H41" s="126">
+      <c r="H41" s="75">
         <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="124" t="s">
+      <c r="C42" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="124">
+      <c r="D42" s="73">
         <v>10</v>
       </c>
-      <c r="E42" s="125" t="s">
+      <c r="E42" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="124">
+      <c r="F42" s="73">
         <v>19</v>
       </c>
-      <c r="G42" s="123" t="s">
+      <c r="G42" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="126">
+      <c r="H42" s="75">
         <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="124" t="s">
+      <c r="C43" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="124">
+      <c r="D43" s="73">
         <v>20</v>
       </c>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="124">
+      <c r="F43" s="73">
         <v>29</v>
       </c>
-      <c r="G43" s="123" t="s">
+      <c r="G43" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="H43" s="126">
+      <c r="H43" s="75">
         <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="124" t="s">
+      <c r="C44" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D44" s="124">
+      <c r="D44" s="73">
         <v>30</v>
       </c>
-      <c r="E44" s="125" t="s">
+      <c r="E44" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="124">
+      <c r="F44" s="73">
         <v>39</v>
       </c>
-      <c r="G44" s="123" t="s">
+      <c r="G44" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="H44" s="126">
+      <c r="H44" s="75">
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="124">
+      <c r="D45" s="73">
         <v>40</v>
       </c>
-      <c r="E45" s="125"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="123" t="s">
+      <c r="E45" s="74"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="H45" s="126">
+      <c r="H45" s="75">
         <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="76" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="76" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7002,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+    <sheetView topLeftCell="A300" workbookViewId="0">
       <selection activeCell="M302" sqref="M302:M303"/>
     </sheetView>
   </sheetViews>
@@ -20476,7 +20483,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
